--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1243776.759839713</v>
+        <v>1188824.870555617</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013173</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8201222.144193111</v>
+        <v>8201222.144193112</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>239.7540494987171</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>240.4660086744112</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>76.30354209911837</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>22.70042032133687</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>76.53519509961427</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>103.4639343406806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>240.4660086744112</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90.22595344863024</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
         <v>177.283526739121</v>
@@ -1742,13 +1742,13 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1773944157285</v>
+        <v>160.8703032682072</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>80.39631948615268</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553588</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706154</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>149.8100015377235</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
@@ -1861,10 +1861,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>173.9558865751801</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>134.7549293585491</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.329915919761022</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.329915919761465</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886886</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.916258666856974</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.226885210985627</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>277.2545382046338</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>149.4986189496732</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>121.7225296755062</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886886</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>96.91252062100195</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.1434003800099</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>52.42857711587121</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>147.8573665543289</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>50.84466373590583</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>24.99476854583047</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -2411,13 +2411,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9743432409925</v>
+        <v>1.887875708261127</v>
       </c>
       <c r="H24" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.226885210985788</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.14340038001</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>249.2860788611576</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>94.52789022461322</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>164.1023207247648</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -2645,16 +2645,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>32.72780201323543</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>174.3941919203111</v>
+        <v>155.8614510880961</v>
       </c>
       <c r="S28" t="n">
-        <v>50.00010435294848</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>130.7186667766796</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>55.13266106779426</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,16 +2876,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>180.4568871413933</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>140.390940807165</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>7.226885210985775</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.61813689207855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>338.9806091168734</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>332.2779548450047</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>268.2154631790856</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>108.0237056585588</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.329915919761465</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
@@ -3164,16 +3164,16 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>8.916258666856974</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>7.226885210985788</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>249.2050440401029</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>240.4660086744112</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.20868868180798</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>177.283526739121</v>
@@ -3401,16 +3401,16 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>60.67147641306376</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>8.91625866685696</v>
       </c>
       <c r="U37" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
-        <v>8.916258666857072</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>169.9526592969906</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>185.1403533011866</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3587,22 +3587,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>44.00059973468135</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>123.7119226495286</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>73.35340349906456</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>50.00010435294849</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>231.0600005062589</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>158.1700947502763</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>53.52219115257891</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>167.3061425227549</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.950900364078454</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>76.53519509961431</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>100.3434079557514</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.1639724458418</v>
@@ -4039,13 +4039,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>196.076905081728</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,16 +4061,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>68.24041473694497</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>103.0399367231933</v>
       </c>
       <c r="U45" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>75.61813689207857</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>76.53519509961431</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.31465285444516</v>
+        <v>1005.464611381245</v>
       </c>
       <c r="C11" t="n">
-        <v>34.31465285444516</v>
+        <v>651.7216847335899</v>
       </c>
       <c r="D11" t="n">
-        <v>34.31465285444516</v>
+        <v>651.7216847335899</v>
       </c>
       <c r="E11" t="n">
-        <v>34.31465285444516</v>
+        <v>276.4904604289069</v>
       </c>
       <c r="F11" t="n">
-        <v>34.31465285444516</v>
+        <v>276.4904604289069</v>
       </c>
       <c r="G11" t="n">
-        <v>34.31465285444516</v>
+        <v>276.4904604289069</v>
       </c>
       <c r="H11" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602993</v>
+        <v>79.26440887602982</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L11" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M11" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
@@ -5062,31 +5062,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q11" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T11" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U11" t="n">
-        <v>942.6401640759908</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V11" t="n">
-        <v>618.5191705313928</v>
+        <v>1391.611649177659</v>
       </c>
       <c r="W11" t="n">
-        <v>277.2096111114262</v>
+        <v>1391.611649177659</v>
       </c>
       <c r="X11" t="n">
-        <v>34.31465285444516</v>
+        <v>1391.611649177659</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.31465285444516</v>
+        <v>1005.464611381245</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1069.118384851047</v>
+        <v>635.1445321876397</v>
       </c>
       <c r="C12" t="n">
-        <v>879.7061105840106</v>
+        <v>445.7322579206034</v>
       </c>
       <c r="D12" t="n">
-        <v>718.9259943450423</v>
+        <v>284.9521416816351</v>
       </c>
       <c r="E12" t="n">
-        <v>545.3627904664568</v>
+        <v>111.3889378030496</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889814</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676438</v>
+        <v>337.3144331656368</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207054</v>
+        <v>712.2060427186982</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520716</v>
+        <v>1115.439807218709</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.95310056761</v>
+        <v>1428.572841265603</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.19346494006</v>
+        <v>1657.813205638053</v>
       </c>
       <c r="Q12" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R12" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S12" t="n">
-        <v>1715.732642722258</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T12" t="n">
-        <v>1715.732642722258</v>
+        <v>1322.652080056736</v>
       </c>
       <c r="U12" t="n">
-        <v>1715.732642722258</v>
+        <v>1083.078954384283</v>
       </c>
       <c r="V12" t="n">
-        <v>1715.732642722258</v>
+        <v>1083.078954384283</v>
       </c>
       <c r="W12" t="n">
-        <v>1692.802925225958</v>
+        <v>813.6803851145747</v>
       </c>
       <c r="X12" t="n">
-        <v>1473.294930842654</v>
+        <v>813.6803851145747</v>
       </c>
       <c r="Y12" t="n">
-        <v>1247.654237777982</v>
+        <v>813.6803851145747</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328434</v>
       </c>
       <c r="C13" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328434</v>
       </c>
       <c r="D13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K13" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L13" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O13" t="n">
         <v>315.4306320098955</v>
@@ -5220,31 +5220,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T13" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328434</v>
       </c>
       <c r="U13" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328434</v>
       </c>
       <c r="V13" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328434</v>
       </c>
       <c r="W13" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328434</v>
       </c>
       <c r="X13" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328434</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328434</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.31465285444516</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="C14" t="n">
-        <v>34.31465285444516</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="D14" t="n">
-        <v>34.31465285444516</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="E14" t="n">
-        <v>34.31465285444516</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="F14" t="n">
-        <v>34.31465285444516</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="G14" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H14" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193753</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389722</v>
+        <v>525.5283691389717</v>
       </c>
       <c r="M14" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O14" t="n">
         <v>1460.632785841149</v>
@@ -5302,28 +5302,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S14" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T14" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U14" t="n">
-        <v>942.6401640759908</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="V14" t="n">
-        <v>618.5191705313928</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="W14" t="n">
-        <v>277.2096111114262</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="X14" t="n">
-        <v>34.31465285444516</v>
+        <v>1133.9683126813</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.31465285444516</v>
+        <v>747.8212748848864</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.31465285444516</v>
+        <v>384.1546434042374</v>
       </c>
       <c r="C15" t="n">
-        <v>34.31465285444516</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="D15" t="n">
-        <v>34.31465285444516</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444516</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F15" t="n">
         <v>34.31465285444516</v>
@@ -5357,52 +5357,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025865</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889813</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443594</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M15" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S15" t="n">
-        <v>1536.658373288802</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T15" t="n">
-        <v>1322.652080056737</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U15" t="n">
-        <v>1083.078954384284</v>
+        <v>1072.383048948579</v>
       </c>
       <c r="V15" t="n">
-        <v>839.9992362879179</v>
+        <v>829.3033308522133</v>
       </c>
       <c r="W15" t="n">
-        <v>570.6006670182093</v>
+        <v>829.3033308522133</v>
       </c>
       <c r="X15" t="n">
-        <v>351.0926726349056</v>
+        <v>609.7953364689097</v>
       </c>
       <c r="Y15" t="n">
-        <v>125.4519795702333</v>
+        <v>384.1546434042374</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.6523243044814</v>
+        <v>115.5230563758115</v>
       </c>
       <c r="C16" t="n">
-        <v>109.6523243044814</v>
+        <v>115.5230563758115</v>
       </c>
       <c r="D16" t="n">
-        <v>109.6523243044814</v>
+        <v>115.5230563758115</v>
       </c>
       <c r="E16" t="n">
-        <v>109.6523243044814</v>
+        <v>115.5230563758115</v>
       </c>
       <c r="F16" t="n">
-        <v>109.6523243044814</v>
+        <v>115.5230563758115</v>
       </c>
       <c r="G16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514568</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306431</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098954</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809698</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R16" t="n">
-        <v>109.6523243044814</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S16" t="n">
-        <v>109.6523243044814</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T16" t="n">
-        <v>109.6523243044814</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U16" t="n">
-        <v>109.6523243044814</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V16" t="n">
-        <v>109.6523243044814</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W16" t="n">
-        <v>109.6523243044814</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X16" t="n">
-        <v>109.6523243044814</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.6523243044814</v>
+        <v>115.5230563758115</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1715.732642722257</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="C17" t="n">
-        <v>1715.732642722257</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="D17" t="n">
-        <v>1374.548643083644</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E17" t="n">
-        <v>1374.548643083644</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F17" t="n">
-        <v>967.276673750297</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G17" t="n">
-        <v>545.6619674202884</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
-        <v>210.0276695970513</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I17" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602962</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193745</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389714</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292772</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O17" t="n">
-        <v>1460.632785841148</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P17" t="n">
         <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R17" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S17" t="n">
-        <v>1715.732642722257</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="T17" t="n">
-        <v>1715.732642722257</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="U17" t="n">
-        <v>1715.732642722257</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="V17" t="n">
-        <v>1715.732642722257</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.732642722257</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="X17" t="n">
-        <v>1715.732642722257</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="Y17" t="n">
-        <v>1715.732642722257</v>
+        <v>1579.616552461097</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.31465285444515</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="C18" t="n">
-        <v>34.31465285444515</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="D18" t="n">
-        <v>34.31465285444515</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="E18" t="n">
-        <v>34.31465285444515</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="F18" t="n">
-        <v>34.31465285444515</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31465285444515</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="H18" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I18" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025865</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K18" t="n">
-        <v>54.40930111025865</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L18" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M18" t="n">
-        <v>679.5863020207051</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O18" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q18" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
         <v>1627.958867440572</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007116</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T18" t="n">
         <v>1234.878304775051</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025978</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062319</v>
+        <v>752.2254610062323</v>
       </c>
       <c r="W18" t="n">
-        <v>482.8268917365232</v>
+        <v>482.8268917365236</v>
       </c>
       <c r="X18" t="n">
-        <v>263.3188973532195</v>
+        <v>263.31889735322</v>
       </c>
       <c r="Y18" t="n">
-        <v>37.67820428854719</v>
+        <v>37.67820428854765</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.61453690594578</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="C19" t="n">
-        <v>41.61453690594578</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="D19" t="n">
-        <v>41.61453690594578</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E19" t="n">
-        <v>41.61453690594578</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F19" t="n">
-        <v>41.61453690594578</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514567</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L19" t="n">
-        <v>105.4471208306431</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098954</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R19" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S19" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T19" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U19" t="n">
-        <v>334.8576753800219</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="V19" t="n">
-        <v>334.8576753800219</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="W19" t="n">
-        <v>41.61453690594578</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="X19" t="n">
-        <v>41.61453690594578</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.61453690594578</v>
+        <v>43.32097474015927</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>726.4491766257581</v>
+        <v>314.3697419500348</v>
       </c>
       <c r="C20" t="n">
-        <v>372.7062499781027</v>
+        <v>314.3697419500348</v>
       </c>
       <c r="D20" t="n">
-        <v>372.7062499781027</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E20" t="n">
-        <v>372.7062499781027</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F20" t="n">
-        <v>372.7062499781027</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G20" t="n">
-        <v>372.7062499781027</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H20" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I20" t="n">
         <v>34.31465285444515</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K20" t="n">
         <v>253.8975067193749</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M20" t="n">
         <v>856.6460009292778</v>
@@ -5782,22 +5782,22 @@
         <v>1610.227176505314</v>
       </c>
       <c r="T20" t="n">
-        <v>1391.879729590323</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="U20" t="n">
-        <v>1391.879729590323</v>
+        <v>1357.666194286148</v>
       </c>
       <c r="V20" t="n">
-        <v>1067.758736045725</v>
+        <v>1033.54520074155</v>
       </c>
       <c r="W20" t="n">
-        <v>726.4491766257581</v>
+        <v>692.2356413215837</v>
       </c>
       <c r="X20" t="n">
-        <v>726.4491766257581</v>
+        <v>692.2356413215837</v>
       </c>
       <c r="Y20" t="n">
-        <v>726.4491766257581</v>
+        <v>692.2356413215837</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>368.3055730157866</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="C21" t="n">
-        <v>368.3055730157866</v>
+        <v>368.6579729719989</v>
       </c>
       <c r="D21" t="n">
-        <v>368.3055730157866</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E21" t="n">
-        <v>194.7423691372011</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F21" t="n">
         <v>34.31465285444515</v>
@@ -5831,52 +5831,52 @@
         <v>34.31465285444515</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K21" t="n">
-        <v>112.3287381944629</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="L21" t="n">
-        <v>395.2338702498411</v>
+        <v>304.6946924676434</v>
       </c>
       <c r="M21" t="n">
-        <v>770.1254798029025</v>
+        <v>679.5863020207049</v>
       </c>
       <c r="N21" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O21" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P21" t="n">
-        <v>1715.732642722257</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q21" t="n">
         <v>1715.732642722257</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007116</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T21" t="n">
-        <v>1448.884598007116</v>
+        <v>1438.766938318093</v>
       </c>
       <c r="U21" t="n">
-        <v>1448.884598007116</v>
+        <v>1199.19381264564</v>
       </c>
       <c r="V21" t="n">
-        <v>1205.80487991075</v>
+        <v>956.1140945492739</v>
       </c>
       <c r="W21" t="n">
-        <v>936.4063106410416</v>
+        <v>956.1140945492739</v>
       </c>
       <c r="X21" t="n">
-        <v>716.898316257738</v>
+        <v>736.6061001659702</v>
       </c>
       <c r="Y21" t="n">
-        <v>491.2576231930656</v>
+        <v>736.6061001659702</v>
       </c>
     </row>
     <row r="22">
@@ -5913,43 +5913,43 @@
         <v>34.31465285444515</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514567</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306431</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N22" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098954</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>158.7019259655662</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U22" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V22" t="n">
-        <v>34.31465285444515</v>
+        <v>87.27281155734536</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444515</v>
+        <v>87.27281155734536</v>
       </c>
       <c r="X22" t="n">
         <v>34.31465285444515</v>
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>816.8178464924752</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C23" t="n">
-        <v>816.8178464924752</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D23" t="n">
-        <v>816.8178464924752</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E23" t="n">
-        <v>441.5866221877922</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H23" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K23" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M23" t="n">
         <v>856.6460009292778</v>
@@ -6010,31 +6010,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q23" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R23" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="T23" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U23" t="n">
-        <v>1715.732642722258</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="V23" t="n">
-        <v>1715.732642722258</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="W23" t="n">
-        <v>1715.732642722258</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="X23" t="n">
-        <v>1352.315759596292</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="Y23" t="n">
-        <v>966.1687217998781</v>
+        <v>863.2013285178008</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>744.1732353004267</v>
+        <v>720.4049086816509</v>
       </c>
       <c r="C24" t="n">
-        <v>744.1732353004267</v>
+        <v>530.9926344146146</v>
       </c>
       <c r="D24" t="n">
-        <v>718.9259943450423</v>
+        <v>370.2125181756463</v>
       </c>
       <c r="E24" t="n">
-        <v>545.3627904664568</v>
+        <v>196.6493142970608</v>
       </c>
       <c r="F24" t="n">
-        <v>384.9350741837009</v>
+        <v>36.22159801430487</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I24" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025866</v>
       </c>
       <c r="K24" t="n">
-        <v>112.3287381944631</v>
+        <v>112.3287381944626</v>
       </c>
       <c r="L24" t="n">
-        <v>395.2338702498412</v>
+        <v>395.2338702498408</v>
       </c>
       <c r="M24" t="n">
-        <v>770.1254798029028</v>
+        <v>770.1254798029023</v>
       </c>
       <c r="N24" t="n">
-        <v>1173.359244302914</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O24" t="n">
-        <v>1486.492278349808</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P24" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q24" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R24" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S24" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T24" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="U24" t="n">
-        <v>1476.159517049805</v>
+        <v>1209.311472334663</v>
       </c>
       <c r="V24" t="n">
-        <v>1233.079798953439</v>
+        <v>1209.311472334663</v>
       </c>
       <c r="W24" t="n">
-        <v>963.6812296837303</v>
+        <v>939.9129030649545</v>
       </c>
       <c r="X24" t="n">
-        <v>744.1732353004267</v>
+        <v>720.4049086816509</v>
       </c>
       <c r="Y24" t="n">
-        <v>744.1732353004267</v>
+        <v>720.4049086816509</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="D25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K25" t="n">
         <v>42.2304192451457</v>
@@ -6171,28 +6171,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="S25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="T25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="U25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="V25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="W25" t="n">
-        <v>41.61453690594595</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="X25" t="n">
-        <v>41.61453690594595</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.61453690594595</v>
+        <v>158.7019259655664</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.1187729162206</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C26" t="n">
-        <v>286.1187729162206</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389726</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292787</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N26" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q26" t="n">
         <v>1715.732642722258</v>
@@ -6256,22 +6256,22 @@
         <v>1413.548593210149</v>
       </c>
       <c r="T26" t="n">
-        <v>1413.548593210149</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U26" t="n">
-        <v>1413.548593210149</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="V26" t="n">
-        <v>1413.548593210149</v>
+        <v>871.080152750559</v>
       </c>
       <c r="W26" t="n">
-        <v>1413.548593210149</v>
+        <v>871.080152750559</v>
       </c>
       <c r="X26" t="n">
-        <v>1050.131710084183</v>
+        <v>507.6632696245932</v>
       </c>
       <c r="Y26" t="n">
-        <v>663.9846722877694</v>
+        <v>412.180552225994</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1069.118384851047</v>
+        <v>591.1286331109902</v>
       </c>
       <c r="C27" t="n">
-        <v>879.7061105840106</v>
+        <v>401.7163588439539</v>
       </c>
       <c r="D27" t="n">
-        <v>718.9259943450423</v>
+        <v>240.9362426049857</v>
       </c>
       <c r="E27" t="n">
-        <v>545.3627904664568</v>
+        <v>67.37303872640013</v>
       </c>
       <c r="F27" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G27" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025866</v>
       </c>
       <c r="K27" t="n">
         <v>215.5091216889814</v>
@@ -6314,43 +6314,43 @@
         <v>498.4142537443595</v>
       </c>
       <c r="M27" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029023</v>
       </c>
       <c r="N27" t="n">
-        <v>1173.359244302914</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O27" t="n">
-        <v>1486.492278349808</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P27" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007117</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775052</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U27" t="n">
-        <v>1234.878304775052</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="V27" t="n">
-        <v>1234.878304775052</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="W27" t="n">
-        <v>1234.878304775052</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="X27" t="n">
-        <v>1234.878304775052</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="Y27" t="n">
-        <v>1234.878304775052</v>
+        <v>769.6644860379254</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.31465285444516</v>
+        <v>177.421866200127</v>
       </c>
       <c r="C28" t="n">
-        <v>34.31465285444516</v>
+        <v>177.421866200127</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444516</v>
+        <v>177.421866200127</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306432</v>
@@ -6405,31 +6405,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q28" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R28" t="n">
-        <v>84.81980876651434</v>
+        <v>177.421866200127</v>
       </c>
       <c r="S28" t="n">
-        <v>34.31465285444516</v>
+        <v>177.421866200127</v>
       </c>
       <c r="T28" t="n">
-        <v>34.31465285444516</v>
+        <v>177.421866200127</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444516</v>
+        <v>177.421866200127</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444516</v>
+        <v>177.421866200127</v>
       </c>
       <c r="W28" t="n">
-        <v>34.31465285444516</v>
+        <v>177.421866200127</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444516</v>
+        <v>177.421866200127</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444516</v>
+        <v>177.421866200127</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>431.1882091271942</v>
+        <v>166.3537102046266</v>
       </c>
       <c r="C29" t="n">
-        <v>431.1882091271942</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D29" t="n">
-        <v>90.00420948858078</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E29" t="n">
-        <v>90.00420948858078</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F29" t="n">
-        <v>90.00420948858078</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G29" t="n">
-        <v>90.00420948858078</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>90.00420948858078</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K29" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M29" t="n">
         <v>856.6460009292779</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O29" t="n">
         <v>1460.632785841149</v>
@@ -6499,16 +6499,16 @@
         <v>1195.201146295157</v>
       </c>
       <c r="V29" t="n">
-        <v>1195.201146295157</v>
+        <v>871.080152750559</v>
       </c>
       <c r="W29" t="n">
-        <v>1195.201146295157</v>
+        <v>529.7705933305924</v>
       </c>
       <c r="X29" t="n">
-        <v>1195.201146295157</v>
+        <v>166.3537102046266</v>
       </c>
       <c r="Y29" t="n">
-        <v>809.0541084987431</v>
+        <v>166.3537102046266</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.9669970985514</v>
+        <v>397.2901310000669</v>
       </c>
       <c r="C30" t="n">
-        <v>678.5547228315151</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D30" t="n">
-        <v>517.7746065925468</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E30" t="n">
-        <v>344.2114027139612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F30" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G30" t="n">
         <v>34.31465285444516</v>
@@ -6542,22 +6542,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L30" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M30" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N30" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O30" t="n">
-        <v>1589.672661844326</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P30" t="n">
         <v>1715.732642722258</v>
@@ -6566,28 +6566,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T30" t="n">
-        <v>1413.952574208507</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U30" t="n">
-        <v>1413.952574208507</v>
+        <v>1533.452958741052</v>
       </c>
       <c r="V30" t="n">
-        <v>1413.952574208507</v>
+        <v>1290.373240644687</v>
       </c>
       <c r="W30" t="n">
-        <v>1413.952574208507</v>
+        <v>1020.974671374978</v>
       </c>
       <c r="X30" t="n">
-        <v>1272.143543090159</v>
+        <v>801.4666769916744</v>
       </c>
       <c r="Y30" t="n">
-        <v>1046.502850025486</v>
+        <v>575.825983927002</v>
       </c>
     </row>
     <row r="31">
@@ -6624,7 +6624,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306432</v>
@@ -6654,16 +6654,16 @@
         <v>334.857675380022</v>
       </c>
       <c r="U31" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V31" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W31" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X31" t="n">
-        <v>110.6966093110902</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y31" t="n">
         <v>34.31465285444516</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1133.9683126813</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="C32" t="n">
-        <v>1133.9683126813</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="D32" t="n">
-        <v>1133.9683126813</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="E32" t="n">
-        <v>791.5636570076908</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="F32" t="n">
-        <v>791.5636570076908</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G32" t="n">
         <v>369.9489506776823</v>
@@ -6700,7 +6700,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K32" t="n">
         <v>253.897506719375</v>
@@ -6718,7 +6718,7 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P32" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q32" t="n">
         <v>1715.732642722258</v>
@@ -6727,25 +6727,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T32" t="n">
-        <v>1497.385195807266</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U32" t="n">
-        <v>1497.385195807266</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="V32" t="n">
-        <v>1497.385195807266</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="W32" t="n">
-        <v>1497.385195807266</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="X32" t="n">
-        <v>1133.9683126813</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="Y32" t="n">
-        <v>1133.9683126813</v>
+        <v>777.2209200110292</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>827.6128177223557</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="C33" t="n">
-        <v>638.2005434553193</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="D33" t="n">
-        <v>477.4204272163511</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="E33" t="n">
-        <v>303.8572233377655</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="F33" t="n">
-        <v>143.4295070550096</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="G33" t="n">
-        <v>34.31465285444516</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="H33" t="n">
-        <v>34.31465285444516</v>
+        <v>37.67820428854765</v>
       </c>
       <c r="I33" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L33" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M33" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N33" t="n">
         <v>1173.359244302914</v>
@@ -6803,28 +6803,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S33" t="n">
-        <v>1536.658373288802</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T33" t="n">
-        <v>1322.652080056737</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U33" t="n">
-        <v>1322.652080056737</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="V33" t="n">
-        <v>1322.652080056737</v>
+        <v>752.2254610062323</v>
       </c>
       <c r="W33" t="n">
-        <v>1053.253510787028</v>
+        <v>482.8268917365236</v>
       </c>
       <c r="X33" t="n">
-        <v>1053.253510787028</v>
+        <v>263.31889735322</v>
       </c>
       <c r="Y33" t="n">
-        <v>827.6128177223557</v>
+        <v>37.67820428854765</v>
       </c>
     </row>
     <row r="34">
@@ -6891,13 +6891,13 @@
         <v>334.857675380022</v>
       </c>
       <c r="U34" t="n">
-        <v>43.32097474015927</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W34" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="X34" t="n">
         <v>34.31465285444516</v>
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.31465285444516</v>
+        <v>809.0541084987435</v>
       </c>
       <c r="C35" t="n">
-        <v>34.31465285444516</v>
+        <v>809.0541084987435</v>
       </c>
       <c r="D35" t="n">
-        <v>34.31465285444516</v>
+        <v>809.0541084987435</v>
       </c>
       <c r="E35" t="n">
-        <v>34.31465285444516</v>
+        <v>809.0541084987435</v>
       </c>
       <c r="F35" t="n">
-        <v>34.31465285444516</v>
+        <v>809.0541084987435</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444516</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I35" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L35" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389726</v>
       </c>
       <c r="M35" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292787</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
         <v>1715.732642722258</v>
@@ -6967,22 +6967,22 @@
         <v>1413.548593210149</v>
       </c>
       <c r="T35" t="n">
-        <v>1195.201146295157</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U35" t="n">
-        <v>942.6401640759908</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="V35" t="n">
-        <v>618.5191705313928</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="W35" t="n">
-        <v>277.2096111114262</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="X35" t="n">
-        <v>34.31465285444516</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="Y35" t="n">
-        <v>34.31465285444516</v>
+        <v>809.0541084987435</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>678.5547228315149</v>
+        <v>698.9675396818261</v>
       </c>
       <c r="C36" t="n">
-        <v>678.5547228315149</v>
+        <v>698.9675396818261</v>
       </c>
       <c r="D36" t="n">
-        <v>517.7746065925467</v>
+        <v>538.1874234428578</v>
       </c>
       <c r="E36" t="n">
-        <v>344.2114027139611</v>
+        <v>364.6242195642723</v>
       </c>
       <c r="F36" t="n">
-        <v>183.7836864312052</v>
+        <v>204.1965032815164</v>
       </c>
       <c r="G36" t="n">
-        <v>34.31465285444516</v>
+        <v>54.72746970475626</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444516</v>
+        <v>54.72746970475626</v>
       </c>
       <c r="I36" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K36" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944635</v>
       </c>
       <c r="L36" t="n">
-        <v>478.319605488546</v>
+        <v>395.2338702498417</v>
       </c>
       <c r="M36" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029032</v>
       </c>
       <c r="N36" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O36" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P36" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S36" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T36" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U36" t="n">
-        <v>1173.593985165896</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="V36" t="n">
-        <v>1173.593985165896</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="W36" t="n">
-        <v>904.1954158961873</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="X36" t="n">
-        <v>904.1954158961873</v>
+        <v>1103.144085673434</v>
       </c>
       <c r="Y36" t="n">
-        <v>678.5547228315149</v>
+        <v>877.5033926087613</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>325.8513534943079</v>
       </c>
       <c r="U37" t="n">
-        <v>1424.195942082395</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1150.856285470723</v>
+        <v>627.5987120096969</v>
       </c>
       <c r="C38" t="n">
-        <v>797.1133588230673</v>
+        <v>627.5987120096969</v>
       </c>
       <c r="D38" t="n">
         <v>455.9293591844538</v>
@@ -7186,13 +7186,13 @@
         <v>856.6460009292778</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O38" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q38" t="n">
         <v>1715.732642722258</v>
@@ -7204,22 +7204,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T38" t="n">
-        <v>1528.722184842271</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U38" t="n">
-        <v>1528.722184842271</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V38" t="n">
-        <v>1528.722184842271</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W38" t="n">
-        <v>1528.722184842271</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="X38" t="n">
-        <v>1528.722184842271</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="Y38" t="n">
-        <v>1528.722184842271</v>
+        <v>1005.464611381246</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>466.1670950811639</v>
+        <v>591.2042148138789</v>
       </c>
       <c r="C39" t="n">
-        <v>276.7548208141276</v>
+        <v>401.7919405468426</v>
       </c>
       <c r="D39" t="n">
-        <v>115.9747045751594</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="E39" t="n">
-        <v>115.9747045751594</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="F39" t="n">
-        <v>115.9747045751594</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K39" t="n">
-        <v>112.3287381944631</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L39" t="n">
-        <v>395.2338702498412</v>
+        <v>304.6946924676434</v>
       </c>
       <c r="M39" t="n">
-        <v>770.1254798029028</v>
+        <v>679.5863020207049</v>
       </c>
       <c r="N39" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P39" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T39" t="n">
-        <v>1234.878304775051</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U39" t="n">
-        <v>995.3051791025982</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="V39" t="n">
-        <v>870.3436410727713</v>
+        <v>1258.646631393826</v>
       </c>
       <c r="W39" t="n">
-        <v>870.3436410727713</v>
+        <v>989.2480621241176</v>
       </c>
       <c r="X39" t="n">
-        <v>870.3436410727713</v>
+        <v>769.740067740814</v>
       </c>
       <c r="Y39" t="n">
-        <v>644.7029480080989</v>
+        <v>769.740067740814</v>
       </c>
     </row>
     <row r="40">
@@ -7353,31 +7353,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q40" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R40" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S40" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T40" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U40" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="V40" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="W40" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="X40" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1337.866743350709</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="C41" t="n">
-        <v>984.1238167030535</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="D41" t="n">
-        <v>642.9398170644401</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E41" t="n">
-        <v>267.7085927597572</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F41" t="n">
-        <v>267.7085927597572</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G41" t="n">
         <v>34.31465285444516</v>
@@ -7411,16 +7411,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602962</v>
+        <v>79.26440887602976</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193747</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L41" t="n">
         <v>525.5283691389718</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157782</v>
@@ -7438,25 +7438,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="V41" t="n">
-        <v>1715.732642722258</v>
+        <v>976.5856189675018</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.732642722258</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="X41" t="n">
-        <v>1715.732642722258</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="Y41" t="n">
-        <v>1715.732642722258</v>
+        <v>816.8178464924752</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>223.7269271214814</v>
+        <v>653.1150130127789</v>
       </c>
       <c r="C42" t="n">
-        <v>34.31465285444516</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="D42" t="n">
-        <v>34.31465285444516</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="E42" t="n">
-        <v>34.31465285444516</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F42" t="n">
-        <v>34.31465285444516</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G42" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H42" t="n">
         <v>34.31465285444516</v>
@@ -7490,52 +7490,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K42" t="n">
-        <v>34.31465285444516</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L42" t="n">
-        <v>317.2197849098233</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M42" t="n">
-        <v>692.1113944628848</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N42" t="n">
-        <v>1095.345158962896</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O42" t="n">
-        <v>1408.47819300979</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P42" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1573.896048094533</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T42" t="n">
-        <v>1359.889754862467</v>
+        <v>1367.662269730464</v>
       </c>
       <c r="U42" t="n">
-        <v>1359.889754862467</v>
+        <v>1367.662269730464</v>
       </c>
       <c r="V42" t="n">
-        <v>1116.810036766101</v>
+        <v>1367.662269730464</v>
       </c>
       <c r="W42" t="n">
-        <v>847.4114674963926</v>
+        <v>1098.263700460755</v>
       </c>
       <c r="X42" t="n">
-        <v>627.9034731130889</v>
+        <v>878.7557060774514</v>
       </c>
       <c r="Y42" t="n">
-        <v>402.2627800484165</v>
+        <v>653.1150130127789</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
         <v>34.31465285444516</v>
@@ -7602,19 +7602,19 @@
         <v>111.6229307328435</v>
       </c>
       <c r="U43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>34.31465285444516</v>
+        <v>557.286336917536</v>
       </c>
       <c r="C44" t="n">
-        <v>34.31465285444516</v>
+        <v>557.286336917536</v>
       </c>
       <c r="D44" t="n">
-        <v>34.31465285444516</v>
+        <v>557.286336917536</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>557.286336917536</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G44" t="n">
         <v>34.31465285444516</v>
@@ -7648,16 +7648,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602976</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157782</v>
@@ -7672,28 +7672,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U44" t="n">
-        <v>942.6401640759906</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V44" t="n">
-        <v>618.5191705313925</v>
+        <v>920.7032200435018</v>
       </c>
       <c r="W44" t="n">
-        <v>420.4616906508592</v>
+        <v>920.7032200435018</v>
       </c>
       <c r="X44" t="n">
-        <v>420.4616906508592</v>
+        <v>557.286336917536</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.31465285444516</v>
+        <v>557.286336917536</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>292.6566389769814</v>
+        <v>707.186880859583</v>
       </c>
       <c r="C45" t="n">
-        <v>103.2443647099451</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="D45" t="n">
-        <v>34.31465285444516</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="E45" t="n">
-        <v>34.31465285444516</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F45" t="n">
-        <v>34.31465285444516</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G45" t="n">
         <v>34.31465285444516</v>
@@ -7727,13 +7727,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K45" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>478.319605488546</v>
+        <v>304.6946924676434</v>
       </c>
       <c r="M45" t="n">
         <v>679.5863020207049</v>
@@ -7757,22 +7757,22 @@
         <v>1448.884598007116</v>
       </c>
       <c r="T45" t="n">
-        <v>1448.884598007116</v>
+        <v>1344.803853842275</v>
       </c>
       <c r="U45" t="n">
-        <v>1209.311472334663</v>
+        <v>1105.230728169822</v>
       </c>
       <c r="V45" t="n">
-        <v>966.2317542382975</v>
+        <v>1105.230728169822</v>
       </c>
       <c r="W45" t="n">
-        <v>696.8331849685889</v>
+        <v>1105.230728169822</v>
       </c>
       <c r="X45" t="n">
-        <v>696.8331849685889</v>
+        <v>885.7227337865181</v>
       </c>
       <c r="Y45" t="n">
-        <v>471.1924919039165</v>
+        <v>885.7227337865181</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="C46" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="D46" t="n">
         <v>34.31465285444516</v>
@@ -7836,22 +7836,22 @@
         <v>334.857675380022</v>
       </c>
       <c r="T46" t="n">
-        <v>111.6229307328435</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X46" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
     </row>
   </sheetData>
@@ -8771,10 +8771,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491699</v>
       </c>
       <c r="L12" t="n">
-        <v>44.62821923470653</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>103.1808494245544</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,7 +9008,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372845</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9017,7 +9017,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>114.937534052688</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9245,13 +9245,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>8.646382090491727</v>
+        <v>67.15086399372845</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>268.8276482817241</v>
+        <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
         <v>310.6138585746227</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,13 +9479,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K21" t="n">
-        <v>67.15086399372836</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>227.6529352291871</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.6763675213176</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9719,7 +9719,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>67.15086399372845</v>
+        <v>67.150863993728</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9962,10 +9962,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>301.77688131</v>
+        <v>197.5542717195771</v>
       </c>
       <c r="N27" t="n">
-        <v>206.3912489842007</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10208,7 +10208,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>102.1412644882576</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
         <v>44.67636752131757</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10439,7 +10439,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>206.3912489842003</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>171.373473584151</v>
+        <v>67.1508639937289</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10676,7 +10676,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>135.2351585535093</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,13 +10901,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>87.44848849455019</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>240.3045437566416</v>
+        <v>44.62821923470605</v>
       </c>
       <c r="M39" t="n">
         <v>301.77688131</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11138,13 +11138,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
-        <v>240.3045437566416</v>
+        <v>136.081934166219</v>
       </c>
       <c r="M42" t="n">
         <v>301.77688131</v>
@@ -11156,10 +11156,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>193.712265551225</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315037</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11308,7 +11308,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N44" t="n">
-        <v>283.4008070189657</v>
+        <v>283.4008070189656</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
@@ -11375,16 +11375,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
-        <v>240.3045437566416</v>
+        <v>44.62821923470605</v>
       </c>
       <c r="M45" t="n">
-        <v>126.3981812888862</v>
+        <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
         <v>310.6138585746227</v>
@@ -23260,13 +23260,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
@@ -23275,7 +23275,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>92.52390534628756</v>
       </c>
       <c r="I11" t="n">
         <v>185.5090622027478</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>119.3167056202949</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>82.51989702080996</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>244.0041632556747</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23421,7 +23421,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>68.64745515109644</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>24.58419038258738</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>288.6213336334641</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>270.6233060371528</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
@@ -23509,13 +23509,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>119.3167056202949</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.5245409490355</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -23585,7 +23585,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>147.9743432409925</v>
@@ -23594,7 +23594,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350707</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886886</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,13 +23630,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>76.30709114752122</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0550137836253</v>
+        <v>87.65869429747259</v>
       </c>
       <c r="H16" t="n">
         <v>160.0829940331247</v>
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R16" t="n">
-        <v>24.58419038258755</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
         <v>224.1841888012565</v>
@@ -23721,7 +23721,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>11.55317562756768</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>59.9568681036655</v>
       </c>
       <c r="T17" t="n">
         <v>216.1639724458418</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>173.4205784779047</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -23828,10 +23828,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>114.9665067517021</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350707</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
-        <v>145.1826502507107</v>
+        <v>136.2663915838537</v>
       </c>
       <c r="E19" t="n">
         <v>141.676141212225</v>
@@ -23904,7 +23904,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>160.8281285726397</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H19" t="n">
         <v>160.0829940331247</v>
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706154</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
@@ -23946,13 +23946,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>60.5176214375935</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
@@ -23986,10 +23986,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>182.7793358953315</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55.0279647221595</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>147.9743432409925</v>
@@ -24068,7 +24068,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350707</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>114.9537096787429</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706154</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
-        <v>101.0407884212467</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T22" t="n">
         <v>221.0023972007068</v>
@@ -24186,13 +24186,13 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
-        <v>221.9194554082425</v>
+        <v>169.4908782923713</v>
       </c>
       <c r="Y22" t="n">
         <v>217.1412728141684</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226.2298738235044</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
@@ -24214,13 +24214,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>332.2779548450047</v>
@@ -24256,13 +24256,13 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>199.1907086610687</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24271,7 +24271,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24287,10 +24287,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>134.1775465307481</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>146.0864675327313</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>211.8662302997449</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170.3900354539823</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>22.03924987070067</v>
       </c>
       <c r="E25" t="n">
         <v>141.676141212225</v>
@@ -24411,7 +24411,7 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R25" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>224.1841888012565</v>
@@ -24426,7 +24426,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24448,7 +24448,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>88.48608078106966</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>287.7576771938367</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12.64817367290092</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>126.0956371066929</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24590,7 +24590,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24609,7 +24609,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>18.53274083221496</v>
       </c>
       <c r="S28" t="n">
-        <v>174.1840844483081</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
         <v>221.0023972007068</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>219.4868306044992</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
@@ -24700,7 +24700,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>130.3764011349535</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -24764,16 +24764,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
         <v>118.2964226714636</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>56.72050727433515</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>76.92197363230565</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224784</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.5231359220899</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="32">
@@ -24925,13 +24925,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>32.49830294476271</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>52.66432043006637</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -24998,25 +24998,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>39.95063758243371</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>80.84345120350706</v>
+        <v>77.5135352837456</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
-        <v>236.1927565175929</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>221.9194554082425</v>
+        <v>214.6925701972567</v>
       </c>
       <c r="Y34" t="n">
         <v>217.1412728141684</v>
@@ -25168,13 +25168,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>168.1935152266056</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>119.3167056202949</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -25253,7 +25253,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350706</v>
+        <v>60.63476252169907</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,16 +25289,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>176.5059180026647</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0023972007068</v>
+        <v>212.0861385338498</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>236.1927565175928</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
         <v>290.3107070893353</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>167.8195003452366</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
@@ -25444,13 +25444,13 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
-        <v>31.02361914465516</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
@@ -25459,7 +25459,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25475,22 +25475,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.1717153418972</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
-        <v>116.9369982658736</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>104.2635171659035</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S40" t="n">
-        <v>174.1840844483081</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.0023972007068</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>186.3385587604496</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
@@ -25678,19 +25678,19 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>179.7263690754905</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25718,13 +25718,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.84345120350706</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>123.7613355865421</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>44.56008777698997</v>
       </c>
       <c r="U42" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I43" t="n">
-        <v>143.4822689512686</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213336334641</v>
+        <v>212.0861385338498</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25876,10 +25876,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>302.8558416842621</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>141.8195587440389</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25949,16 +25949,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>90.93190033963357</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>118.2964226714636</v>
@@ -25997,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>108.8262935765516</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26028,7 +26028,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>69.56451335863214</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -26076,10 +26076,10 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
-        <v>212.0861385338498</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26088,7 +26088,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>602841.6073910334</v>
+        <v>602841.6073910337</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>602841.6073910338</v>
+        <v>602841.6073910337</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>602841.6073910334</v>
+        <v>602841.6073910336</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551207.4969852873</v>
+        <v>551207.4969852872</v>
       </c>
       <c r="C2" t="n">
         <v>551207.4969852873</v>
       </c>
       <c r="D2" t="n">
-        <v>551207.4969852874</v>
+        <v>551207.4969852873</v>
       </c>
       <c r="E2" t="n">
-        <v>313077.6564078294</v>
+        <v>313077.6564078293</v>
       </c>
       <c r="F2" t="n">
-        <v>313077.6564078294</v>
+        <v>313077.6564078295</v>
       </c>
       <c r="G2" t="n">
-        <v>313077.6564078294</v>
+        <v>313077.6564078295</v>
       </c>
       <c r="H2" t="n">
         <v>313077.6564078293</v>
       </c>
       <c r="I2" t="n">
-        <v>313077.6564078293</v>
+        <v>313077.6564078294</v>
       </c>
       <c r="J2" t="n">
         <v>313077.6564078294</v>
       </c>
       <c r="K2" t="n">
+        <v>313077.6564078295</v>
+      </c>
+      <c r="L2" t="n">
+        <v>313077.6564078295</v>
+      </c>
+      <c r="M2" t="n">
+        <v>313077.6564078295</v>
+      </c>
+      <c r="N2" t="n">
         <v>313077.6564078294</v>
       </c>
-      <c r="L2" t="n">
-        <v>313077.6564078294</v>
-      </c>
-      <c r="M2" t="n">
-        <v>313077.6564078294</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>313077.6564078295</v>
-      </c>
-      <c r="O2" t="n">
-        <v>313077.6564078293</v>
       </c>
       <c r="P2" t="n">
         <v>313077.6564078295</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174924</v>
+        <v>497053.1518174923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26478,31 +26478,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="F5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="G5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="H5" t="n">
         <v>36091.33751189044</v>
       </c>
       <c r="I5" t="n">
+        <v>36091.33751189044</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36091.33751189044</v>
+      </c>
+      <c r="K5" t="n">
         <v>36091.33751189045</v>
-      </c>
-      <c r="J5" t="n">
-        <v>36091.33751189046</v>
-      </c>
-      <c r="K5" t="n">
-        <v>36091.33751189046</v>
       </c>
       <c r="L5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189045</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97922.76770483202</v>
+        <v>97878.10386277997</v>
       </c>
       <c r="C6" t="n">
-        <v>97922.76770483202</v>
+        <v>97878.10386278009</v>
       </c>
       <c r="D6" t="n">
-        <v>97922.76770483213</v>
+        <v>97878.10386278009</v>
       </c>
       <c r="E6" t="n">
-        <v>-259690.3951835005</v>
+        <v>-269260.2526486509</v>
       </c>
       <c r="F6" t="n">
-        <v>237362.7566339918</v>
+        <v>227792.8991688417</v>
       </c>
       <c r="G6" t="n">
-        <v>237362.7566339919</v>
+        <v>227792.8991688417</v>
       </c>
       <c r="H6" t="n">
-        <v>237362.7566339918</v>
+        <v>227792.8991688415</v>
       </c>
       <c r="I6" t="n">
-        <v>237362.7566339917</v>
+        <v>227792.8991688416</v>
       </c>
       <c r="J6" t="n">
-        <v>237362.7566339918</v>
+        <v>227792.8991688416</v>
       </c>
       <c r="K6" t="n">
-        <v>237362.7566339918</v>
+        <v>227792.8991688417</v>
       </c>
       <c r="L6" t="n">
-        <v>237362.7566339918</v>
+        <v>227792.8991688417</v>
       </c>
       <c r="M6" t="n">
-        <v>130470.8972597524</v>
+        <v>120901.0397946023</v>
       </c>
       <c r="N6" t="n">
-        <v>237362.7566339919</v>
+        <v>227792.8991688416</v>
       </c>
       <c r="O6" t="n">
-        <v>237362.7566339917</v>
+        <v>227792.8991688417</v>
       </c>
       <c r="P6" t="n">
-        <v>237362.756633992</v>
+        <v>227792.8991688417</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>459.2752909409235</v>
+      </c>
+      <c r="F3" t="n">
         <v>459.2752909409236</v>
       </c>
-      <c r="F3" t="n">
-        <v>459.2752909409235</v>
-      </c>
       <c r="G3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="H3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="I3" t="n">
         <v>459.2752909409236</v>
@@ -26798,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="F4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="G4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="H4" t="n">
         <v>428.9331606805644</v>
       </c>
       <c r="I4" t="n">
+        <v>428.9331606805644</v>
+      </c>
+      <c r="J4" t="n">
+        <v>428.9331606805644</v>
+      </c>
+      <c r="K4" t="n">
         <v>428.9331606805645</v>
-      </c>
-      <c r="J4" t="n">
-        <v>428.9331606805646</v>
-      </c>
-      <c r="K4" t="n">
-        <v>428.9331606805646</v>
       </c>
       <c r="L4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="O4" t="n">
         <v>428.9331606805644</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J11" t="n">
         <v>156.7051908522501</v>
@@ -31767,10 +31767,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N11" t="n">
         <v>329.4457823148396</v>
@@ -31785,13 +31785,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R11" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T11" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H12" t="n">
         <v>9.54079425143315</v>
@@ -31840,7 +31840,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
@@ -31864,7 +31864,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
@@ -31873,7 +31873,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H13" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I13" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M13" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N13" t="n">
         <v>126.7373929903044</v>
@@ -31952,7 +31952,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,22 +31995,22 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J14" t="n">
         <v>156.7051908522501</v>
       </c>
       <c r="K14" t="n">
-        <v>234.8604594573929</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148395</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O14" t="n">
         <v>311.086310257377</v>
@@ -32019,16 +32019,16 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692327</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R14" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S14" t="n">
-        <v>42.0733093158444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T14" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993449</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433148</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I15" t="n">
-        <v>34.0123682442099</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K15" t="n">
-        <v>159.5201734582262</v>
+        <v>159.5201734582263</v>
       </c>
       <c r="L15" t="n">
         <v>214.4945592267021</v>
@@ -32089,28 +32089,28 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9298629953379</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O15" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P15" t="n">
-        <v>188.6408265753389</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q15" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S15" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742533</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196979</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315138</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I16" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340264</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368852</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M16" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N16" t="n">
         <v>126.7373929903044</v>
@@ -32174,22 +32174,22 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P16" t="n">
-        <v>100.1671880439023</v>
+        <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207944</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R16" t="n">
-        <v>37.23894408186568</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184163</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,22 +32232,22 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J17" t="n">
         <v>156.7051908522501</v>
       </c>
       <c r="K17" t="n">
-        <v>234.8604594573929</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148395</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O17" t="n">
         <v>311.086310257377</v>
@@ -32256,16 +32256,16 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692327</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R17" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.0733093158444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T17" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993449</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H18" t="n">
-        <v>9.540794251433148</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I18" t="n">
-        <v>34.0123682442099</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K18" t="n">
-        <v>159.5201734582262</v>
+        <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
         <v>214.4945592267021</v>
@@ -32326,28 +32326,28 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
-        <v>256.9298629953379</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O18" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P18" t="n">
-        <v>188.6408265753389</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q18" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S18" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742533</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196979</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315138</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340264</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368852</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M19" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N19" t="n">
         <v>126.7373929903044</v>
@@ -32411,22 +32411,22 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P19" t="n">
-        <v>100.1671880439023</v>
+        <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207944</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R19" t="n">
-        <v>37.23894408186568</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184163</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,22 +32469,22 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J20" t="n">
         <v>156.7051908522501</v>
       </c>
       <c r="K20" t="n">
-        <v>234.8604594573929</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N20" t="n">
-        <v>329.4457823148395</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
         <v>311.086310257377</v>
@@ -32493,16 +32493,16 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3831741692327</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R20" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S20" t="n">
-        <v>42.0733093158444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T20" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U20" t="n">
         <v>0.1477066262322567</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993449</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H21" t="n">
-        <v>9.540794251433148</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I21" t="n">
-        <v>34.0123682442099</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K21" t="n">
-        <v>159.5201734582262</v>
+        <v>159.5201734582263</v>
       </c>
       <c r="L21" t="n">
         <v>214.4945592267021</v>
@@ -32563,28 +32563,28 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9298629953379</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O21" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P21" t="n">
-        <v>188.6408265753389</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q21" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742533</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196979</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315138</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I22" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340264</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368852</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M22" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
         <v>126.7373929903044</v>
@@ -32648,22 +32648,22 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P22" t="n">
-        <v>100.1671880439023</v>
+        <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207944</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186568</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184163</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
@@ -35418,7 +35418,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M11" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N11" t="n">
         <v>332.9626517459644</v>
@@ -35430,7 +35430,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K12" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>90.0864351299621</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
         <v>378.6783934879409</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>58.50448190323682</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M13" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K14" t="n">
-        <v>176.3970685286314</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L14" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4622543336422</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459643</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O14" t="n">
         <v>277.1250097811782</v>
@@ -35667,7 +35667,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002261</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082171</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936592</v>
+        <v>58.50448190323679</v>
       </c>
       <c r="L15" t="n">
         <v>285.7627596518971</v>
@@ -35737,16 +35737,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N15" t="n">
-        <v>211.6305083063593</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867615</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P15" t="n">
-        <v>231.5559236085353</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151261</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970218</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676512</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M16" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793116</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186792</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144089</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K17" t="n">
-        <v>176.3970685286314</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L17" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M17" t="n">
-        <v>334.4622543336422</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459643</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O17" t="n">
         <v>277.1250097811782</v>
@@ -35904,7 +35904,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002261</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082171</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>58.50448190323679</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M18" t="n">
-        <v>345.729160459665</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N18" t="n">
         <v>407.306832828294</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867615</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
-        <v>231.5559236085353</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151261</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970218</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676512</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M19" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793116</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186792</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144089</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K20" t="n">
-        <v>176.3970685286314</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336422</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N20" t="n">
-        <v>332.9626517459643</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
         <v>277.1250097811782</v>
@@ -36141,7 +36141,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002261</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>58.50448190323664</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518971</v>
+        <v>273.1111511244426</v>
       </c>
       <c r="M21" t="n">
         <v>378.6783934879409</v>
@@ -36214,13 +36214,13 @@
         <v>407.306832828294</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867615</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P21" t="n">
-        <v>231.5559236085353</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970218</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676512</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M22" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793116</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186792</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144089</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K24" t="n">
-        <v>58.50448190323679</v>
+        <v>58.50448190323633</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518971</v>
@@ -36682,10 +36682,10 @@
         <v>285.7627596518971</v>
       </c>
       <c r="M27" t="n">
-        <v>378.6783934879409</v>
+        <v>274.455783897518</v>
       </c>
       <c r="N27" t="n">
-        <v>303.084223237872</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867616</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518971</v>
@@ -36928,7 +36928,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
-        <v>127.3333140181136</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518971</v>
@@ -37159,7 +37159,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N33" t="n">
-        <v>303.0842232378716</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O33" t="n">
         <v>316.2959939867616</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K36" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323724</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518971</v>
@@ -37396,7 +37396,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N36" t="n">
-        <v>231.9281328071806</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867616</v>
@@ -37405,7 +37405,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K39" t="n">
-        <v>78.80210640405852</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L39" t="n">
-        <v>285.7627596518971</v>
+        <v>90.08643512996164</v>
       </c>
       <c r="M39" t="n">
         <v>378.6783934879409</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K41" t="n">
         <v>176.3970685286315</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L42" t="n">
-        <v>285.7627596518971</v>
+        <v>181.5401500614746</v>
       </c>
       <c r="M42" t="n">
         <v>378.6783934879409</v>
@@ -37876,10 +37876,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P42" t="n">
-        <v>218.9043150810811</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119657</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
@@ -38028,7 +38028,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N44" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O44" t="n">
         <v>277.1250097811782</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K45" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
-        <v>285.7627596518971</v>
+        <v>90.08643512996164</v>
       </c>
       <c r="M45" t="n">
-        <v>203.2996934668272</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N45" t="n">
         <v>407.306832828294</v>
